--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Spon2</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Spon2</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H2">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>14.47094445554733</v>
+        <v>124.1815773224582</v>
       </c>
       <c r="R2">
-        <v>130.238500099926</v>
+        <v>1117.634195902124</v>
       </c>
       <c r="S2">
-        <v>0.00687859941011781</v>
+        <v>0.05261593657929735</v>
       </c>
       <c r="T2">
-        <v>0.00687859941011781</v>
+        <v>0.05261593657929735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H3">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>22.23176563409955</v>
+        <v>102.2643645110818</v>
       </c>
       <c r="R3">
-        <v>200.085890706896</v>
+        <v>920.379280599736</v>
       </c>
       <c r="S3">
-        <v>0.01056761778378415</v>
+        <v>0.04332957781221643</v>
       </c>
       <c r="T3">
-        <v>0.01056761778378415</v>
+        <v>0.04332957781221643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H4">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>11.10905785301155</v>
+        <v>58.99954972044223</v>
       </c>
       <c r="R4">
-        <v>99.981520677104</v>
+        <v>530.99594748398</v>
       </c>
       <c r="S4">
-        <v>0.005280564722601562</v>
+        <v>0.0249982053154069</v>
       </c>
       <c r="T4">
-        <v>0.005280564722601562</v>
+        <v>0.0249982053154069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H5">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>17.68203996720555</v>
+        <v>59.63407038516879</v>
       </c>
       <c r="R5">
-        <v>159.13835970485</v>
+        <v>536.7066334665191</v>
       </c>
       <c r="S5">
-        <v>0.008404957261892783</v>
+        <v>0.02526705275456299</v>
       </c>
       <c r="T5">
-        <v>0.008404957261892785</v>
+        <v>0.02526705275456299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H6">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I6">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J6">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>8.882072982870666</v>
+        <v>44.91825648025412</v>
       </c>
       <c r="R6">
-        <v>79.93865684583599</v>
+        <v>404.264308322287</v>
       </c>
       <c r="S6">
-        <v>0.004221992708788036</v>
+        <v>0.01903193843383594</v>
       </c>
       <c r="T6">
-        <v>0.004221992708788037</v>
+        <v>0.01903193843383594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H7">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I7">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J7">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>11.66013497755778</v>
+        <v>75.15212260756346</v>
       </c>
       <c r="R7">
-        <v>104.94121479802</v>
+        <v>676.3691034680711</v>
       </c>
       <c r="S7">
-        <v>0.005542512986965188</v>
+        <v>0.03184207675709737</v>
       </c>
       <c r="T7">
-        <v>0.005542512986965189</v>
+        <v>0.03184207675709737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H8">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I8">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J8">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>240.9739532534233</v>
+        <v>449.5520985305378</v>
       </c>
       <c r="R8">
-        <v>2168.76557928081</v>
+        <v>4045.96888677484</v>
       </c>
       <c r="S8">
-        <v>0.1145442370948594</v>
+        <v>0.1904759563808106</v>
       </c>
       <c r="T8">
-        <v>0.1145442370948594</v>
+        <v>0.1904759563808106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H9">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I9">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J9">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>370.2091780608622</v>
@@ -1013,10 +1013,10 @@
         <v>3331.88260254776</v>
       </c>
       <c r="S9">
-        <v>0.1759747362483625</v>
+        <v>0.1568582317435371</v>
       </c>
       <c r="T9">
-        <v>0.1759747362483625</v>
+        <v>0.1568582317435371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H10">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I10">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J10">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>184.9909379435822</v>
+        <v>213.5853961679778</v>
       </c>
       <c r="R10">
-        <v>1664.91844149224</v>
+        <v>1922.2685655118</v>
       </c>
       <c r="S10">
-        <v>0.08793334536835085</v>
+        <v>0.09049648024567349</v>
       </c>
       <c r="T10">
-        <v>0.08793334536835083</v>
+        <v>0.09049648024567349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H11">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I11">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J11">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>294.4459558649722</v>
+        <v>215.8824365385323</v>
       </c>
       <c r="R11">
-        <v>2650.01360278475</v>
+        <v>1942.94192884679</v>
       </c>
       <c r="S11">
-        <v>0.1399615473990683</v>
+        <v>0.09146973999211193</v>
       </c>
       <c r="T11">
-        <v>0.1399615473990683</v>
+        <v>0.09146973999211193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H12">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I12">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J12">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>147.9066032174067</v>
+        <v>162.6094377155189</v>
       </c>
       <c r="R12">
-        <v>1331.15942895666</v>
+        <v>1463.48493943967</v>
       </c>
       <c r="S12">
-        <v>0.0703057272294189</v>
+        <v>0.06889788361938948</v>
       </c>
       <c r="T12">
-        <v>0.0703057272294189</v>
+        <v>0.06889788361938948</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1228,13 +1228,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H13">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I13">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J13">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>194.1676184054111</v>
+        <v>272.0596336083456</v>
       </c>
       <c r="R13">
-        <v>1747.5085656487</v>
+        <v>2448.53670247511</v>
       </c>
       <c r="S13">
-        <v>0.09229537640270935</v>
+        <v>0.1152721098923808</v>
       </c>
       <c r="T13">
-        <v>0.09229537640270936</v>
+        <v>0.1152721098923808</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H14">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I14">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J14">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>5.028910895897665</v>
+        <v>18.89602392288089</v>
       </c>
       <c r="R14">
-        <v>45.26019806307899</v>
+        <v>170.064215305928</v>
       </c>
       <c r="S14">
-        <v>0.00239043578864655</v>
+        <v>0.008006276114092967</v>
       </c>
       <c r="T14">
-        <v>0.00239043578864655</v>
+        <v>0.008006276114092967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H15">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I15">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J15">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>7.725934459620443</v>
+        <v>15.56100284699911</v>
       </c>
       <c r="R15">
-        <v>69.53341013658398</v>
+        <v>140.049025622992</v>
       </c>
       <c r="S15">
-        <v>0.00367243536728398</v>
+        <v>0.006593222252137544</v>
       </c>
       <c r="T15">
-        <v>0.00367243536728398</v>
+        <v>0.006593222252137544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H16">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I16">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J16">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>3.860595433268444</v>
+        <v>8.977635225728889</v>
       </c>
       <c r="R16">
-        <v>34.745358899416</v>
+        <v>80.79871703156</v>
       </c>
       <c r="S16">
-        <v>0.001835090277041591</v>
+        <v>0.003803838667972769</v>
       </c>
       <c r="T16">
-        <v>0.001835090277041591</v>
+        <v>0.003803838667972769</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H17">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I17">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J17">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>6.144823769169443</v>
+        <v>9.074186726513112</v>
       </c>
       <c r="R17">
-        <v>55.303413922525</v>
+        <v>81.667680538618</v>
       </c>
       <c r="S17">
-        <v>0.002920872323415199</v>
+        <v>0.003844747696118766</v>
       </c>
       <c r="T17">
-        <v>0.002920872323415199</v>
+        <v>0.003844747696118766</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H18">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I18">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J18">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>3.086678532899333</v>
+        <v>6.834962699990444</v>
       </c>
       <c r="R18">
-        <v>27.780106796094</v>
+        <v>61.514664299914</v>
       </c>
       <c r="S18">
-        <v>0.001467217651262942</v>
+        <v>0.002895984828818255</v>
       </c>
       <c r="T18">
-        <v>0.001467217651262942</v>
+        <v>0.002895984828818255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H19">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I19">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J19">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>4.052104547592222</v>
+        <v>11.43548292159578</v>
       </c>
       <c r="R19">
-        <v>36.46894092833</v>
+        <v>102.919346294362</v>
       </c>
       <c r="S19">
-        <v>0.001926121963664833</v>
+        <v>0.004845232740070101</v>
       </c>
       <c r="T19">
-        <v>0.001926121963664833</v>
+        <v>0.004845232740070101</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H20">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I20">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J20">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>79.82975372898733</v>
+        <v>15.74375866801156</v>
       </c>
       <c r="R20">
-        <v>718.4677835608859</v>
+        <v>141.693828012104</v>
       </c>
       <c r="S20">
-        <v>0.0379461685169804</v>
+        <v>0.006670656191174404</v>
       </c>
       <c r="T20">
-        <v>0.0379461685169804</v>
+        <v>0.006670656191174404</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H21">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I21">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J21">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>122.6427467110062</v>
+        <v>12.96509119882844</v>
       </c>
       <c r="R21">
-        <v>1103.784720399056</v>
+        <v>116.685820789456</v>
       </c>
       <c r="S21">
-        <v>0.05829683942005343</v>
+        <v>0.005493330258569627</v>
       </c>
       <c r="T21">
-        <v>0.05829683942005343</v>
+        <v>0.005493330258569627</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H22">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I22">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J22">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>61.28372306943822</v>
+        <v>7.479971605675557</v>
       </c>
       <c r="R22">
-        <v>551.553507624944</v>
+        <v>67.31974445108001</v>
       </c>
       <c r="S22">
-        <v>0.02913052307333433</v>
+        <v>0.003169276152751795</v>
       </c>
       <c r="T22">
-        <v>0.02913052307333432</v>
+        <v>0.003169276152751795</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H23">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I23">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J23">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>97.54393711787222</v>
+        <v>7.560416229030447</v>
       </c>
       <c r="R23">
-        <v>877.89543406085</v>
+        <v>68.04374606127401</v>
       </c>
       <c r="S23">
-        <v>0.04636640479000351</v>
+        <v>0.003203360670695995</v>
       </c>
       <c r="T23">
-        <v>0.04636640479000351</v>
+        <v>0.003203360670695995</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H24">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I24">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J24">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>48.99843966671066</v>
+        <v>5.694743174155779</v>
       </c>
       <c r="R24">
-        <v>440.985957000396</v>
+        <v>51.252688567402</v>
       </c>
       <c r="S24">
-        <v>0.02329085286889668</v>
+        <v>0.002412871958525027</v>
       </c>
       <c r="T24">
-        <v>0.02329085286889668</v>
+        <v>0.002412871958525027</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H25">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I25">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J25">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>64.32377005969111</v>
+        <v>9.527797175985112</v>
       </c>
       <c r="R25">
-        <v>578.91393053722</v>
+        <v>85.75017458386601</v>
       </c>
       <c r="S25">
-        <v>0.03057557494939676</v>
+        <v>0.004036943182403743</v>
       </c>
       <c r="T25">
-        <v>0.03057557494939676</v>
+        <v>0.004036943182403743</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H26">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I26">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J26">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>13.54174791599567</v>
+        <v>21.71869022802</v>
       </c>
       <c r="R26">
-        <v>121.875731243961</v>
+        <v>195.46821205218</v>
       </c>
       <c r="S26">
-        <v>0.00643691636804149</v>
+        <v>0.009202244425157895</v>
       </c>
       <c r="T26">
-        <v>0.00643691636804149</v>
+        <v>0.009202244425157895</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H27">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I27">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J27">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>20.80423754436178</v>
+        <v>17.88548754228</v>
       </c>
       <c r="R27">
-        <v>187.238137899256</v>
+        <v>160.96938788052</v>
       </c>
       <c r="S27">
-        <v>0.009889058488213589</v>
+        <v>0.007578110203664052</v>
       </c>
       <c r="T27">
-        <v>0.009889058488213589</v>
+        <v>0.007578110203664052</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H28">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I28">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J28">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>10.39573204719378</v>
+        <v>10.3187040429</v>
       </c>
       <c r="R28">
-        <v>93.561588424744</v>
+        <v>92.8683363861</v>
       </c>
       <c r="S28">
-        <v>0.004941493386781526</v>
+        <v>0.0043720517101499</v>
       </c>
       <c r="T28">
-        <v>0.004941493386781525</v>
+        <v>0.0043720517101499</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H29">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I29">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J29">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>16.54665516905278</v>
+        <v>10.429678295745</v>
       </c>
       <c r="R29">
-        <v>148.919896521475</v>
+        <v>93.86710466170501</v>
       </c>
       <c r="S29">
-        <v>0.007865264968357889</v>
+        <v>0.004419071681835922</v>
       </c>
       <c r="T29">
-        <v>0.007865264968357887</v>
+        <v>0.004419071681835922</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H30">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I30">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J30">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>8.311744521927332</v>
+        <v>7.855961561385</v>
       </c>
       <c r="R30">
-        <v>74.805700697346</v>
+        <v>70.703654052465</v>
       </c>
       <c r="S30">
-        <v>0.003950893539893478</v>
+        <v>0.003328583709400805</v>
       </c>
       <c r="T30">
-        <v>0.003950893539893478</v>
+        <v>0.003328583709400805</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H31">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I31">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J31">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>10.91142385471889</v>
+        <v>13.143702198705</v>
       </c>
       <c r="R31">
-        <v>98.20281469247001</v>
+        <v>118.293319788345</v>
       </c>
       <c r="S31">
-        <v>0.005186621641812938</v>
+        <v>0.005569008030140098</v>
       </c>
       <c r="T31">
-        <v>0.005186621641812938</v>
+        <v>0.005569008030140098</v>
       </c>
     </row>
   </sheetData>
